--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>文件大小（M）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两者时间相减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读和发送时间(乘倍数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅读文件（倍数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,8 +126,7 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
+      <c:lineChart>
         <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="2"/>
@@ -131,6 +142,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$6:$B$10</c:f>
@@ -171,10 +185,10 @@
                   <c:v>50063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68717</c:v>
+                  <c:v>63717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95788</c:v>
+                  <c:v>99788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -194,6 +208,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$6:$B$10</c:f>
@@ -225,30 +242,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>446638</c:v>
+                  <c:v>436638</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>894727</c:v>
+                  <c:v>964727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1813129</c:v>
+                  <c:v>1247331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3657667</c:v>
+                  <c:v>1794475</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7356980</c:v>
+                  <c:v>2133202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:overlap val="100"/>
-        <c:axId val="86244736"/>
-        <c:axId val="89003136"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:axId val="86820352"/>
+        <c:axId val="87293952"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="86244736"/>
+        <c:axId val="86820352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -281,14 +298,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89003136"/>
+        <c:crossAx val="87293952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89003136"/>
+        <c:axId val="87293952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -322,7 +339,528 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86244736"/>
+        <c:crossAx val="86820352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>TCP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>发包时间</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>仅读文件</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>发送数据</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>861730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1716591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2435127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3384203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4108862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="246128640"/>
+        <c:axId val="246131328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="246128640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>测试文件大小（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="246131328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="246131328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>耗费时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>us</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="246128640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>libpcap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>发包时间</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>仅读文件</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>发送数据</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$61:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8538.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17077.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24616.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34154.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42693.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="360538880"/>
+        <c:axId val="360540416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360538880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>测试文件大小（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="360540416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360540416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>耗费时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>us</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="360538880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -346,15 +884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -368,6 +906,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -661,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:F10"/>
+  <dimension ref="B5:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -672,7 +1270,7 @@
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -682,8 +1280,14 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>10</v>
       </c>
@@ -691,18 +1295,17 @@
         <v>19160</v>
       </c>
       <c r="D6">
-        <f>$E6-$C6</f>
-        <v>446638</v>
-      </c>
-      <c r="E6">
-        <f>$F6</f>
-        <v>465798</v>
+        <v>436638</v>
       </c>
       <c r="F6">
         <v>465798</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="G6">
+        <f>$F6-$C6</f>
+        <v>446638</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>20</v>
       </c>
@@ -710,19 +1313,18 @@
         <v>36869</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="0">$E7-$C7</f>
-        <v>894727</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E10" si="1">$F7</f>
-        <v>931596</v>
+        <v>964727</v>
       </c>
       <c r="F7">
         <f>$F6 * 2</f>
         <v>931596</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="G7">
+        <f t="shared" ref="G7:G10" si="0">$F7-$C7</f>
+        <v>894727</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>30</v>
       </c>
@@ -730,56 +1332,297 @@
         <v>50063</v>
       </c>
       <c r="D8">
+        <v>1247331</v>
+      </c>
+      <c r="F8">
+        <f>$F6 *3</f>
+        <v>1397394</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>1813129</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>1863192</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="E8:F10" si="2">$F7 * 2</f>
-        <v>1863192</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+        <v>1347331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>40</v>
       </c>
       <c r="C9">
-        <v>68717</v>
+        <v>63717</v>
       </c>
       <c r="D9">
+        <v>1794475</v>
+      </c>
+      <c r="F9">
+        <f>$F6 * 4</f>
+        <v>1863192</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>3657667</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>3726384</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>3726384</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+        <v>1799475</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>50</v>
       </c>
       <c r="C10">
-        <v>95788</v>
+        <v>99788</v>
       </c>
       <c r="D10">
+        <v>2133202</v>
+      </c>
+      <c r="F10">
+        <f>$F6 * 5</f>
+        <v>2328990</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>7356980</v>
-      </c>
-      <c r="E10">
+        <v>2229202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>19160</v>
+      </c>
+      <c r="D33">
+        <v>861730</v>
+      </c>
+      <c r="E33">
+        <v>861730</v>
+      </c>
+      <c r="F33">
+        <f>$E33-$C33</f>
+        <v>842570</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>36869</v>
+      </c>
+      <c r="D34">
+        <v>1716591</v>
+      </c>
+      <c r="E34">
+        <f>E33*2</f>
+        <v>1723460</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F37" si="1">$E34-$C34</f>
+        <v>1686591</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>50063</v>
+      </c>
+      <c r="D35">
+        <v>2435127</v>
+      </c>
+      <c r="E35">
+        <f>E33*3</f>
+        <v>2585190</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="1"/>
-        <v>7452768</v>
-      </c>
-      <c r="F10">
+        <v>2535127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>62717</v>
+      </c>
+      <c r="D36">
+        <v>3384203</v>
+      </c>
+      <c r="E36">
+        <f>E33*4</f>
+        <v>3446920</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>3384203</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>99788</v>
+      </c>
+      <c r="D37">
+        <v>4108862</v>
+      </c>
+      <c r="E37">
+        <f>E33*5</f>
+        <v>4308650</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>4208862</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>17160</v>
+      </c>
+      <c r="D61">
+        <v>8538.7000000000007</v>
+      </c>
+      <c r="E61">
+        <v>25698.7</v>
+      </c>
+      <c r="F61">
+        <v>17160</v>
+      </c>
+      <c r="H61">
+        <f>$E61-$F61</f>
+        <v>8538.7000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>34320</v>
+      </c>
+      <c r="D62">
+        <v>17077.400000000001</v>
+      </c>
+      <c r="E62">
+        <f>E61*2</f>
+        <v>51397.4</v>
+      </c>
+      <c r="F62">
+        <f>$F61*2</f>
+        <v>34320</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H65" si="2">$E62-$F62</f>
+        <v>17077.400000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>47480</v>
+      </c>
+      <c r="D63">
+        <v>24616.1</v>
+      </c>
+      <c r="E63">
+        <f>E61*3</f>
+        <v>77096.100000000006</v>
+      </c>
+      <c r="F63">
+        <f>$F61*3</f>
+        <v>51480</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="2"/>
-        <v>7452768</v>
+        <v>25616.100000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>68640</v>
+      </c>
+      <c r="D64">
+        <v>34154.800000000003</v>
+      </c>
+      <c r="E64">
+        <f>E61*4</f>
+        <v>102794.8</v>
+      </c>
+      <c r="F64">
+        <f>$F61*4</f>
+        <v>68640</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>34154.800000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>85800</v>
+      </c>
+      <c r="D65">
+        <v>42693.5</v>
+      </c>
+      <c r="E65">
+        <f>E61*5</f>
+        <v>128493.5</v>
+      </c>
+      <c r="F65">
+        <f>$F61*5</f>
+        <v>85800</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>42693.5</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -122,12 +122,11 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -142,9 +141,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$6:$B$10</c:f>
@@ -208,9 +204,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$6:$B$10</c:f>
@@ -261,11 +254,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86820352"/>
-        <c:axId val="87293952"/>
+        <c:axId val="84350464"/>
+        <c:axId val="84357120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86820352"/>
+        <c:axId val="84350464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,19 +287,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87293952"/>
+        <c:crossAx val="84357120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87293952"/>
+        <c:axId val="84357120"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -335,24 +328,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86820352"/>
+        <c:crossAx val="84350464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -388,7 +379,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -403,9 +394,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$33:$B$37</c:f>
@@ -469,9 +457,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$33:$B$37</c:f>
@@ -522,11 +507,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="246128640"/>
-        <c:axId val="246131328"/>
+        <c:axId val="84382464"/>
+        <c:axId val="84384384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246128640"/>
+        <c:axId val="84382464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,15 +544,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246131328"/>
+        <c:crossAx val="84384384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246131328"/>
+        <c:axId val="84384384"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -600,7 +586,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246128640"/>
+        <c:crossAx val="84382464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -613,7 +599,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -648,9 +634,9 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -663,33 +649,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$61:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$61:$C$65</c:f>
@@ -716,7 +675,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -729,33 +688,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$61:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$61:$D$65</c:f>
@@ -782,11 +714,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="360538880"/>
-        <c:axId val="360540416"/>
+        <c:axId val="84963712"/>
+        <c:axId val="84965632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="360538880"/>
+        <c:axId val="84963712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,15 +751,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360540416"/>
+        <c:crossAx val="84965632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360540416"/>
+        <c:axId val="84965632"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -860,7 +793,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360538880"/>
+        <c:crossAx val="84963712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -873,7 +806,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1262,7 +1195,7 @@
   <dimension ref="B5:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+      <selection activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
